--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3643.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3643.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.589395621879703</v>
+        <v>0.5306265354156494</v>
       </c>
       <c r="B1">
-        <v>1.766103991496687</v>
+        <v>1.608950734138489</v>
       </c>
       <c r="C1">
-        <v>1.819499300485796</v>
+        <v>2.327079057693481</v>
       </c>
       <c r="D1">
-        <v>2.251992302815468</v>
+        <v>1.971695423126221</v>
       </c>
       <c r="E1">
-        <v>3.346954955228938</v>
+        <v>0.9562870264053345</v>
       </c>
     </row>
   </sheetData>
